--- a/字段模板.xlsx
+++ b/字段模板.xlsx
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
